--- a/Communities_Eng_Estimate.WL.xlsx
+++ b/Communities_Eng_Estimate.WL.xlsx
@@ -1367,7 +1367,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1565,8 +1565,13 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1624,6 +1629,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6600"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2783,7 +2794,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="186">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3297,6 +3308,14 @@
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="297">
@@ -4733,8 +4752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:XEQ190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B33" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4989,9 +5008,11 @@
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="H20" s="22"/>
+        <v>230</v>
+      </c>
+      <c r="H20" s="186" t="s">
+        <v>234</v>
+      </c>
       <c r="I20" s="23" t="s">
         <v>49</v>
       </c>
@@ -21409,9 +21430,7 @@
         <v>242</v>
       </c>
       <c r="G21" s="28"/>
-      <c r="H21" s="28" t="s">
-        <v>234</v>
-      </c>
+      <c r="H21" s="187"/>
       <c r="I21" s="29"/>
       <c r="J21" s="27"/>
       <c r="K21" s="27"/>
@@ -46486,8 +46505,9 @@
       <c r="Y190" s="112"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="J19:L19"/>
+    <mergeCell ref="H20:H21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Communities_Eng_Estimate.WL.xlsx
+++ b/Communities_Eng_Estimate.WL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14420" tabRatio="640"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14420" tabRatio="640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="12" r:id="rId1"/>
@@ -642,8 +642,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
@@ -1597,20 +1597,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1632,7 +1620,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1640,10 +1628,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1653,13 +1641,25 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="359" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="21" xfId="359" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="24" xfId="359" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="23" xfId="359" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="359" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="21" xfId="359" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="24" xfId="359" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="23" xfId="359" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="359" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="4" borderId="21" xfId="359" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="359" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="21" xfId="359" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="368">
     <cellStyle name="Comma" xfId="359" builtinId="3"/>
@@ -3075,7 +3075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -3085,221 +3085,221 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:7" ht="20">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="80">
+      <c r="B3" s="77">
         <v>1</v>
       </c>
-      <c r="C3" s="80">
+      <c r="C3" s="77">
         <v>2</v>
       </c>
-      <c r="D3" s="80">
+      <c r="D3" s="77">
         <v>3</v>
       </c>
-      <c r="E3" s="80">
+      <c r="E3" s="77">
         <v>4</v>
       </c>
-      <c r="F3" s="80">
+      <c r="F3" s="77">
         <v>5</v>
       </c>
-      <c r="G3" s="81" t="s">
+      <c r="G3" s="78" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="82">
+      <c r="B4" s="79">
         <v>41127</v>
       </c>
-      <c r="C4" s="82">
+      <c r="C4" s="79">
         <v>41148</v>
       </c>
-      <c r="D4" s="82">
+      <c r="D4" s="79">
         <v>41169</v>
       </c>
-      <c r="E4" s="82">
+      <c r="E4" s="79">
         <v>41190</v>
       </c>
-      <c r="F4" s="82">
+      <c r="F4" s="79">
         <v>41211</v>
       </c>
-      <c r="G4" s="83"/>
+      <c r="G4" s="80"/>
     </row>
     <row r="5" spans="1:7" ht="20">
-      <c r="A5" s="78"/>
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="83"/>
+      <c r="A5" s="75"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="80"/>
     </row>
     <row r="6" spans="1:7" ht="20">
-      <c r="A6" s="78"/>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="83"/>
+      <c r="A6" s="75"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="80"/>
     </row>
     <row r="7" spans="1:7" ht="20">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="85">
+      <c r="B7" s="82">
         <v>1900</v>
       </c>
-      <c r="C7" s="85">
+      <c r="C7" s="82">
         <v>450</v>
       </c>
-      <c r="D7" s="85">
+      <c r="D7" s="82">
         <v>450</v>
       </c>
-      <c r="E7" s="85">
+      <c r="E7" s="82">
         <v>200</v>
       </c>
-      <c r="F7" s="85">
+      <c r="F7" s="82">
         <v>100</v>
       </c>
-      <c r="G7" s="86">
+      <c r="G7" s="83">
         <f>SUM(B7:F7)</f>
         <v>3100</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="B8" s="85">
+      <c r="B8" s="82">
         <v>480</v>
       </c>
-      <c r="C8" s="85">
+      <c r="C8" s="82">
         <v>120</v>
       </c>
-      <c r="D8" s="85">
+      <c r="D8" s="82">
         <v>120</v>
       </c>
-      <c r="E8" s="85">
+      <c r="E8" s="82">
         <v>120</v>
       </c>
-      <c r="F8" s="85">
+      <c r="F8" s="82">
         <v>120</v>
       </c>
-      <c r="G8" s="86">
+      <c r="G8" s="83">
         <f t="shared" ref="G8:G11" si="0">SUM(B8:F8)</f>
         <v>960</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="85">
+      <c r="B9" s="82">
         <v>285</v>
       </c>
-      <c r="C9" s="85">
+      <c r="C9" s="82">
         <v>78</v>
       </c>
-      <c r="D9" s="85">
+      <c r="D9" s="82">
         <v>78</v>
       </c>
-      <c r="E9" s="85">
+      <c r="E9" s="82">
         <v>78</v>
       </c>
-      <c r="F9" s="85">
+      <c r="F9" s="82">
         <v>78</v>
       </c>
-      <c r="G9" s="86">
+      <c r="G9" s="83">
         <f t="shared" si="0"/>
         <v>597</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="B10" s="85">
+      <c r="B10" s="82">
         <v>700</v>
       </c>
-      <c r="C10" s="85">
+      <c r="C10" s="82">
         <v>190</v>
       </c>
-      <c r="D10" s="85">
+      <c r="D10" s="82">
         <v>190</v>
       </c>
-      <c r="E10" s="85">
+      <c r="E10" s="82">
         <v>190</v>
       </c>
-      <c r="F10" s="85">
+      <c r="F10" s="82">
         <v>190</v>
       </c>
-      <c r="G10" s="86">
+      <c r="G10" s="83">
         <f t="shared" si="0"/>
         <v>1460</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="B11" s="85">
+      <c r="B11" s="82">
         <v>40</v>
       </c>
-      <c r="C11" s="85">
+      <c r="C11" s="82">
         <v>60</v>
       </c>
-      <c r="D11" s="85">
+      <c r="D11" s="82">
         <v>20</v>
       </c>
-      <c r="E11" s="85">
+      <c r="E11" s="82">
         <v>20</v>
       </c>
-      <c r="F11" s="85">
-        <v>0</v>
-      </c>
-      <c r="G11" s="86">
+      <c r="F11" s="82">
+        <v>0</v>
+      </c>
+      <c r="G11" s="83">
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20">
-      <c r="A12" s="89"/>
-      <c r="B12" s="90"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="91"/>
+      <c r="A12" s="86"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="88"/>
     </row>
     <row r="13" spans="1:7" ht="20">
-      <c r="A13" s="79" t="s">
+      <c r="A13" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="87">
+      <c r="B13" s="84">
         <f t="shared" ref="B13:F13" si="1">SUM(B7:B11)</f>
         <v>3405</v>
       </c>
-      <c r="C13" s="87">
+      <c r="C13" s="84">
         <f t="shared" si="1"/>
         <v>898</v>
       </c>
-      <c r="D13" s="87">
+      <c r="D13" s="84">
         <f t="shared" si="1"/>
         <v>858</v>
       </c>
-      <c r="E13" s="87">
+      <c r="E13" s="84">
         <f t="shared" si="1"/>
         <v>608</v>
       </c>
-      <c r="F13" s="87">
+      <c r="F13" s="84">
         <f t="shared" si="1"/>
         <v>488</v>
       </c>
-      <c r="G13" s="88">
+      <c r="G13" s="85">
         <f>SUM(G7:G11)</f>
         <v>6257</v>
       </c>
@@ -3318,8 +3318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XEM97"/>
   <sheetViews>
-    <sheetView topLeftCell="C77" workbookViewId="0">
-      <selection activeCell="E103" sqref="E103"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3439,11 +3439,11 @@
       </c>
     </row>
     <row r="8" spans="1:16367">
-      <c r="F8" s="55" t="s">
+      <c r="F8" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="56"/>
-      <c r="H8" s="57"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="91"/>
     </row>
     <row r="9" spans="1:16367" ht="36" customHeight="1">
       <c r="A9" s="15" t="s">
@@ -3482,7 +3482,7 @@
       <c r="L9" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="O9" s="58" t="s">
+      <c r="O9" s="55" t="s">
         <v>13</v>
       </c>
       <c r="P9" s="49" t="s">
@@ -3498,7 +3498,7 @@
         <v>21</v>
       </c>
       <c r="T9" s="19"/>
-      <c r="U9" s="58" t="s">
+      <c r="U9" s="55" t="s">
         <v>13</v>
       </c>
       <c r="V9" s="49" t="s">
@@ -3514,7 +3514,7 @@
         <v>13</v>
       </c>
       <c r="Z9" s="19"/>
-      <c r="AA9" s="58" t="s">
+      <c r="AA9" s="55" t="s">
         <v>76</v>
       </c>
       <c r="AB9" s="49" t="s">
@@ -19879,7 +19879,7 @@
       <c r="J10" s="21"/>
       <c r="K10" s="21"/>
       <c r="L10" s="25"/>
-      <c r="O10" s="59">
+      <c r="O10" s="56">
         <v>1</v>
       </c>
       <c r="P10" s="19">
@@ -19891,10 +19891,10 @@
       <c r="R10" s="19">
         <v>4</v>
       </c>
-      <c r="S10" s="60">
+      <c r="S10" s="57">
         <v>5</v>
       </c>
-      <c r="U10" s="59">
+      <c r="U10" s="56">
         <v>1</v>
       </c>
       <c r="V10" s="19">
@@ -19906,11 +19906,11 @@
       <c r="X10" s="19">
         <v>4</v>
       </c>
-      <c r="Y10" s="60">
+      <c r="Y10" s="57">
         <v>5</v>
       </c>
       <c r="Z10" s="19"/>
-      <c r="AA10" s="59">
+      <c r="AA10" s="56">
         <v>1</v>
       </c>
       <c r="AB10" s="19">
@@ -19922,7 +19922,7 @@
       <c r="AD10" s="19">
         <v>4</v>
       </c>
-      <c r="AE10" s="60">
+      <c r="AE10" s="57">
         <v>5</v>
       </c>
       <c r="AF10" s="19"/>
@@ -36296,7 +36296,7 @@
       <c r="J11" s="28"/>
       <c r="K11" s="28"/>
       <c r="L11" s="29"/>
-      <c r="O11" s="61">
+      <c r="O11" s="58">
         <f>IF($D11=$O$10,$F11,0)</f>
         <v>128</v>
       </c>
@@ -36312,11 +36312,11 @@
         <f>IF($D11=$R$10,$G11,0)</f>
         <v>0</v>
       </c>
-      <c r="S11" s="62">
+      <c r="S11" s="59">
         <f>IF($D11=$S$10,$G11,0)</f>
         <v>0</v>
       </c>
-      <c r="U11" s="61">
+      <c r="U11" s="58">
         <f>IF($D11=$U$10,$F11,0)</f>
         <v>128</v>
       </c>
@@ -36332,11 +36332,11 @@
         <f>IF($D11=$X$10,$F11,0)</f>
         <v>0</v>
       </c>
-      <c r="Y11" s="62">
+      <c r="Y11" s="59">
         <f>IF($D11=$Y$10,$F11,0)</f>
         <v>0</v>
       </c>
-      <c r="AA11" s="61">
+      <c r="AA11" s="58">
         <f>IF($D11=$AA$10,$H11,0)</f>
         <v>192</v>
       </c>
@@ -36352,7 +36352,7 @@
         <f>IF($D11=$AD$10,$H11,0)</f>
         <v>0</v>
       </c>
-      <c r="AE11" s="62">
+      <c r="AE11" s="59">
         <f t="shared" ref="AE11:AE67" si="3">IF($D11=$AE$10,$H11,0)</f>
         <v>0</v>
       </c>
@@ -36393,7 +36393,7 @@
       <c r="L12" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="O12" s="61">
+      <c r="O12" s="58">
         <f t="shared" ref="O12:O67" si="4">IF($D12=$O$10,$F12,0)</f>
         <v>128</v>
       </c>
@@ -36409,11 +36409,11 @@
         <f t="shared" ref="R12:R67" si="7">IF($D12=$R$10,$G12,0)</f>
         <v>0</v>
       </c>
-      <c r="S12" s="62">
+      <c r="S12" s="59">
         <f t="shared" ref="S12:S67" si="8">IF($D12=$S$10,$G12,0)</f>
         <v>0</v>
       </c>
-      <c r="U12" s="61">
+      <c r="U12" s="58">
         <f t="shared" ref="U12:U67" si="9">IF($D12=$U$10,$F12,0)</f>
         <v>128</v>
       </c>
@@ -36429,11 +36429,11 @@
         <f t="shared" ref="X12:X67" si="12">IF($D12=$X$10,$F12,0)</f>
         <v>0</v>
       </c>
-      <c r="Y12" s="62">
+      <c r="Y12" s="59">
         <f t="shared" ref="Y12:Y67" si="13">IF($D12=$Y$10,$F12,0)</f>
         <v>0</v>
       </c>
-      <c r="AA12" s="61">
+      <c r="AA12" s="58">
         <f t="shared" ref="AA12:AA67" si="14">IF($D12=$AA$10,$H12,0)</f>
         <v>192</v>
       </c>
@@ -36449,7 +36449,7 @@
         <f t="shared" ref="AD12:AD67" si="17">IF($D12=$AD$10,$H12,0)</f>
         <v>0</v>
       </c>
-      <c r="AE12" s="62">
+      <c r="AE12" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -36490,7 +36490,7 @@
       <c r="L13" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="O13" s="61">
+      <c r="O13" s="58">
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
@@ -36506,11 +36506,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S13" s="62">
+      <c r="S13" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U13" s="61">
+      <c r="U13" s="58">
         <f t="shared" si="9"/>
         <v>48</v>
       </c>
@@ -36526,11 +36526,11 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y13" s="62">
+      <c r="Y13" s="59">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AA13" s="61">
+      <c r="AA13" s="58">
         <f t="shared" si="14"/>
         <v>72</v>
       </c>
@@ -36546,7 +36546,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE13" s="62">
+      <c r="AE13" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -36585,7 +36585,7 @@
       <c r="J14" s="28"/>
       <c r="K14" s="28"/>
       <c r="L14" s="29"/>
-      <c r="O14" s="61">
+      <c r="O14" s="58">
         <f t="shared" si="4"/>
         <v>80</v>
       </c>
@@ -36601,11 +36601,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S14" s="62">
+      <c r="S14" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U14" s="61">
+      <c r="U14" s="58">
         <f t="shared" si="9"/>
         <v>80</v>
       </c>
@@ -36621,11 +36621,11 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y14" s="62">
+      <c r="Y14" s="59">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AA14" s="61">
+      <c r="AA14" s="58">
         <f t="shared" si="14"/>
         <v>120</v>
       </c>
@@ -36641,7 +36641,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE14" s="62">
+      <c r="AE14" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -36682,7 +36682,7 @@
       <c r="L15" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="O15" s="61">
+      <c r="O15" s="58">
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
@@ -36698,11 +36698,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S15" s="62">
+      <c r="S15" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U15" s="61">
+      <c r="U15" s="58">
         <f t="shared" si="9"/>
         <v>48</v>
       </c>
@@ -36718,11 +36718,11 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y15" s="62">
+      <c r="Y15" s="59">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AA15" s="61">
+      <c r="AA15" s="58">
         <f t="shared" si="14"/>
         <v>72</v>
       </c>
@@ -36738,7 +36738,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE15" s="62">
+      <c r="AE15" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -36777,7 +36777,7 @@
       <c r="J16" s="28"/>
       <c r="K16" s="28"/>
       <c r="L16" s="29"/>
-      <c r="O16" s="61">
+      <c r="O16" s="58">
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
@@ -36793,11 +36793,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S16" s="62">
+      <c r="S16" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U16" s="61">
+      <c r="U16" s="58">
         <f t="shared" si="9"/>
         <v>32</v>
       </c>
@@ -36813,11 +36813,11 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y16" s="62">
+      <c r="Y16" s="59">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AA16" s="61">
+      <c r="AA16" s="58">
         <f t="shared" si="14"/>
         <v>48</v>
       </c>
@@ -36833,7 +36833,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE16" s="62">
+      <c r="AE16" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -36874,7 +36874,7 @@
       <c r="L17" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="O17" s="61">
+      <c r="O17" s="58">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -36890,11 +36890,11 @@
         <f t="shared" si="7"/>
         <v>160</v>
       </c>
-      <c r="S17" s="62">
+      <c r="S17" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U17" s="61">
+      <c r="U17" s="58">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -36910,11 +36910,11 @@
         <f t="shared" si="12"/>
         <v>80</v>
       </c>
-      <c r="Y17" s="62">
+      <c r="Y17" s="59">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AA17" s="61">
+      <c r="AA17" s="58">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
@@ -36930,7 +36930,7 @@
         <f t="shared" si="17"/>
         <v>120</v>
       </c>
-      <c r="AE17" s="62">
+      <c r="AE17" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -36971,7 +36971,7 @@
       <c r="L18" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="O18" s="61">
+      <c r="O18" s="58">
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
@@ -36987,11 +36987,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S18" s="62">
+      <c r="S18" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U18" s="61">
+      <c r="U18" s="58">
         <f t="shared" si="9"/>
         <v>48</v>
       </c>
@@ -37007,11 +37007,11 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y18" s="62">
+      <c r="Y18" s="59">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AA18" s="61">
+      <c r="AA18" s="58">
         <f t="shared" si="14"/>
         <v>72</v>
       </c>
@@ -37027,7 +37027,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE18" s="62">
+      <c r="AE18" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -37068,7 +37068,7 @@
       <c r="L19" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="O19" s="61">
+      <c r="O19" s="58">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -37084,11 +37084,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S19" s="62">
+      <c r="S19" s="59">
         <f t="shared" si="8"/>
         <v>256</v>
       </c>
-      <c r="U19" s="61">
+      <c r="U19" s="58">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -37104,11 +37104,11 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y19" s="62">
+      <c r="Y19" s="59">
         <f t="shared" si="13"/>
         <v>128</v>
       </c>
-      <c r="AA19" s="61">
+      <c r="AA19" s="58">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
@@ -37124,7 +37124,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE19" s="62">
+      <c r="AE19" s="59">
         <f t="shared" si="3"/>
         <v>192</v>
       </c>
@@ -37165,7 +37165,7 @@
       <c r="L20" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="O20" s="61">
+      <c r="O20" s="58">
         <f t="shared" si="4"/>
         <v>80</v>
       </c>
@@ -37181,11 +37181,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S20" s="62">
+      <c r="S20" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U20" s="61">
+      <c r="U20" s="58">
         <f t="shared" si="9"/>
         <v>80</v>
       </c>
@@ -37201,11 +37201,11 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y20" s="62">
+      <c r="Y20" s="59">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AA20" s="61">
+      <c r="AA20" s="58">
         <f t="shared" si="14"/>
         <v>120</v>
       </c>
@@ -37221,7 +37221,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE20" s="62">
+      <c r="AE20" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -37260,7 +37260,7 @@
       <c r="J21" s="28"/>
       <c r="K21" s="28"/>
       <c r="L21" s="29"/>
-      <c r="O21" s="61">
+      <c r="O21" s="58">
         <f t="shared" si="4"/>
         <v>80</v>
       </c>
@@ -37276,11 +37276,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S21" s="62">
+      <c r="S21" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U21" s="61">
+      <c r="U21" s="58">
         <f t="shared" si="9"/>
         <v>80</v>
       </c>
@@ -37296,11 +37296,11 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y21" s="62">
+      <c r="Y21" s="59">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AA21" s="61">
+      <c r="AA21" s="58">
         <f t="shared" si="14"/>
         <v>120</v>
       </c>
@@ -37316,7 +37316,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE21" s="62">
+      <c r="AE21" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -37355,7 +37355,7 @@
       <c r="J22" s="28"/>
       <c r="K22" s="28"/>
       <c r="L22" s="29"/>
-      <c r="O22" s="61">
+      <c r="O22" s="58">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -37371,11 +37371,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S22" s="62">
+      <c r="S22" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U22" s="61">
+      <c r="U22" s="58">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -37391,11 +37391,11 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y22" s="62">
+      <c r="Y22" s="59">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AA22" s="61">
+      <c r="AA22" s="58">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
@@ -37411,7 +37411,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE22" s="62">
+      <c r="AE22" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -37450,7 +37450,7 @@
       <c r="J23" s="28"/>
       <c r="K23" s="28"/>
       <c r="L23" s="29"/>
-      <c r="O23" s="61">
+      <c r="O23" s="58">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
@@ -37466,11 +37466,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S23" s="62">
+      <c r="S23" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U23" s="61">
+      <c r="U23" s="58">
         <f t="shared" si="9"/>
         <v>16</v>
       </c>
@@ -37486,11 +37486,11 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y23" s="62">
+      <c r="Y23" s="59">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AA23" s="61">
+      <c r="AA23" s="58">
         <f t="shared" si="14"/>
         <v>24</v>
       </c>
@@ -37506,7 +37506,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE23" s="62">
+      <c r="AE23" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -37547,7 +37547,7 @@
       <c r="L24" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="O24" s="61">
+      <c r="O24" s="58">
         <f t="shared" si="4"/>
         <v>128</v>
       </c>
@@ -37563,11 +37563,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S24" s="62">
+      <c r="S24" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U24" s="61">
+      <c r="U24" s="58">
         <f t="shared" si="9"/>
         <v>128</v>
       </c>
@@ -37583,11 +37583,11 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y24" s="62">
+      <c r="Y24" s="59">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AA24" s="61">
+      <c r="AA24" s="58">
         <f t="shared" si="14"/>
         <v>192</v>
       </c>
@@ -37603,7 +37603,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE24" s="62">
+      <c r="AE24" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -37644,7 +37644,7 @@
       <c r="L25" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="O25" s="61">
+      <c r="O25" s="58">
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
@@ -37660,11 +37660,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S25" s="62">
+      <c r="S25" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U25" s="61">
+      <c r="U25" s="58">
         <f t="shared" si="9"/>
         <v>48</v>
       </c>
@@ -37680,11 +37680,11 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y25" s="62">
+      <c r="Y25" s="59">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AA25" s="61">
+      <c r="AA25" s="58">
         <f t="shared" si="14"/>
         <v>72</v>
       </c>
@@ -37700,7 +37700,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE25" s="62">
+      <c r="AE25" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -37739,7 +37739,7 @@
       <c r="J26" s="28"/>
       <c r="K26" s="28"/>
       <c r="L26" s="29"/>
-      <c r="O26" s="61">
+      <c r="O26" s="58">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -37755,11 +37755,11 @@
         <f t="shared" si="7"/>
         <v>64</v>
       </c>
-      <c r="S26" s="62">
+      <c r="S26" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U26" s="61">
+      <c r="U26" s="58">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -37775,11 +37775,11 @@
         <f t="shared" si="12"/>
         <v>32</v>
       </c>
-      <c r="Y26" s="62">
+      <c r="Y26" s="59">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AA26" s="61">
+      <c r="AA26" s="58">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
@@ -37795,7 +37795,7 @@
         <f t="shared" si="17"/>
         <v>48</v>
       </c>
-      <c r="AE26" s="62">
+      <c r="AE26" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -37836,7 +37836,7 @@
       <c r="L27" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="O27" s="61">
+      <c r="O27" s="58">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -37852,11 +37852,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S27" s="62">
+      <c r="S27" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U27" s="61">
+      <c r="U27" s="58">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -37872,11 +37872,11 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y27" s="62">
+      <c r="Y27" s="59">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AA27" s="61">
+      <c r="AA27" s="58">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
@@ -37892,7 +37892,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE27" s="62">
+      <c r="AE27" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -37933,7 +37933,7 @@
       <c r="L28" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="O28" s="61">
+      <c r="O28" s="58">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -37949,11 +37949,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S28" s="62">
+      <c r="S28" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U28" s="61">
+      <c r="U28" s="58">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -37969,11 +37969,11 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y28" s="62">
+      <c r="Y28" s="59">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AA28" s="61">
+      <c r="AA28" s="58">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
@@ -37989,7 +37989,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE28" s="62">
+      <c r="AE28" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -38028,7 +38028,7 @@
       <c r="J29" s="28"/>
       <c r="K29" s="28"/>
       <c r="L29" s="29"/>
-      <c r="O29" s="61">
+      <c r="O29" s="58">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
@@ -38044,11 +38044,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S29" s="62">
+      <c r="S29" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U29" s="61">
+      <c r="U29" s="58">
         <f t="shared" si="9"/>
         <v>16</v>
       </c>
@@ -38064,11 +38064,11 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y29" s="62">
+      <c r="Y29" s="59">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AA29" s="61">
+      <c r="AA29" s="58">
         <f t="shared" si="14"/>
         <v>24</v>
       </c>
@@ -38084,7 +38084,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE29" s="62">
+      <c r="AE29" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -38123,7 +38123,7 @@
       <c r="J30" s="28"/>
       <c r="K30" s="28"/>
       <c r="L30" s="29"/>
-      <c r="O30" s="61">
+      <c r="O30" s="58">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -38139,11 +38139,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S30" s="62">
+      <c r="S30" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U30" s="61">
+      <c r="U30" s="58">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -38159,11 +38159,11 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y30" s="62">
+      <c r="Y30" s="59">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AA30" s="61">
+      <c r="AA30" s="58">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
@@ -38179,7 +38179,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE30" s="62">
+      <c r="AE30" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -38218,7 +38218,7 @@
       <c r="J31" s="28"/>
       <c r="K31" s="28"/>
       <c r="L31" s="29"/>
-      <c r="O31" s="61">
+      <c r="O31" s="58">
         <f t="shared" si="4"/>
         <v>80</v>
       </c>
@@ -38234,11 +38234,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S31" s="62">
+      <c r="S31" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U31" s="61">
+      <c r="U31" s="58">
         <f t="shared" si="9"/>
         <v>80</v>
       </c>
@@ -38254,11 +38254,11 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y31" s="62">
+      <c r="Y31" s="59">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AA31" s="61">
+      <c r="AA31" s="58">
         <f t="shared" si="14"/>
         <v>120</v>
       </c>
@@ -38274,7 +38274,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE31" s="62">
+      <c r="AE31" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -38313,7 +38313,7 @@
       <c r="J32" s="28"/>
       <c r="K32" s="28"/>
       <c r="L32" s="29"/>
-      <c r="O32" s="61">
+      <c r="O32" s="58">
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
@@ -38329,11 +38329,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S32" s="62">
+      <c r="S32" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U32" s="61">
+      <c r="U32" s="58">
         <f t="shared" si="9"/>
         <v>48</v>
       </c>
@@ -38349,11 +38349,11 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y32" s="62">
+      <c r="Y32" s="59">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AA32" s="61">
+      <c r="AA32" s="58">
         <f t="shared" si="14"/>
         <v>72</v>
       </c>
@@ -38369,7 +38369,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE32" s="62">
+      <c r="AE32" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -38410,7 +38410,7 @@
       <c r="L33"/>
       <c r="M33"/>
       <c r="N33"/>
-      <c r="O33" s="61">
+      <c r="O33" s="58">
         <f>IF($D33=$O$10,$F33,0)</f>
         <v>16</v>
       </c>
@@ -38426,11 +38426,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S33" s="62">
+      <c r="S33" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U33" s="61">
+      <c r="U33" s="58">
         <f t="shared" si="9"/>
         <v>16</v>
       </c>
@@ -38446,11 +38446,11 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y33" s="62">
+      <c r="Y33" s="59">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AA33" s="61">
+      <c r="AA33" s="58">
         <f t="shared" si="14"/>
         <v>24</v>
       </c>
@@ -38466,7 +38466,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE33" s="62">
+      <c r="AE33" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -38507,7 +38507,7 @@
       <c r="L34" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="O34" s="61">
+      <c r="O34" s="58">
         <f t="shared" si="4"/>
         <v>80</v>
       </c>
@@ -38523,11 +38523,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S34" s="62">
+      <c r="S34" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U34" s="61">
+      <c r="U34" s="58">
         <f t="shared" si="9"/>
         <v>80</v>
       </c>
@@ -38543,11 +38543,11 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y34" s="62">
+      <c r="Y34" s="59">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AA34" s="61">
+      <c r="AA34" s="58">
         <f t="shared" si="14"/>
         <v>120</v>
       </c>
@@ -38563,7 +38563,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE34" s="62">
+      <c r="AE34" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -38604,7 +38604,7 @@
       <c r="L35" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="O35" s="61">
+      <c r="O35" s="58">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -38620,11 +38620,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S35" s="62">
+      <c r="S35" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U35" s="61">
+      <c r="U35" s="58">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -38640,11 +38640,11 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y35" s="62">
+      <c r="Y35" s="59">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AA35" s="61">
+      <c r="AA35" s="58">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
@@ -38660,7 +38660,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE35" s="62">
+      <c r="AE35" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -38701,7 +38701,7 @@
       <c r="L36" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="O36" s="61">
+      <c r="O36" s="58">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -38717,11 +38717,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S36" s="62">
+      <c r="S36" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U36" s="61">
+      <c r="U36" s="58">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -38737,11 +38737,11 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y36" s="62">
+      <c r="Y36" s="59">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AA36" s="61">
+      <c r="AA36" s="58">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
@@ -38757,7 +38757,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE36" s="62">
+      <c r="AE36" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -38798,7 +38798,7 @@
       <c r="L37" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="O37" s="61">
+      <c r="O37" s="58">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -38814,11 +38814,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S37" s="62">
+      <c r="S37" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U37" s="61">
+      <c r="U37" s="58">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -38834,11 +38834,11 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y37" s="62">
+      <c r="Y37" s="59">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AA37" s="61">
+      <c r="AA37" s="58">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
@@ -38854,7 +38854,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE37" s="62">
+      <c r="AE37" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -38895,7 +38895,7 @@
       <c r="L38" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="O38" s="61">
+      <c r="O38" s="58">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -38911,11 +38911,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S38" s="62">
+      <c r="S38" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U38" s="61">
+      <c r="U38" s="58">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -38931,11 +38931,11 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y38" s="62">
+      <c r="Y38" s="59">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AA38" s="61">
+      <c r="AA38" s="58">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
@@ -38951,7 +38951,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE38" s="62">
+      <c r="AE38" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -38992,7 +38992,7 @@
       <c r="L39" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="O39" s="61">
+      <c r="O39" s="58">
         <f t="shared" si="4"/>
         <v>128</v>
       </c>
@@ -39008,11 +39008,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S39" s="62">
+      <c r="S39" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U39" s="61">
+      <c r="U39" s="58">
         <f t="shared" si="9"/>
         <v>128</v>
       </c>
@@ -39028,11 +39028,11 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y39" s="62">
+      <c r="Y39" s="59">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AA39" s="61">
+      <c r="AA39" s="58">
         <f t="shared" si="14"/>
         <v>192</v>
       </c>
@@ -39048,7 +39048,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE39" s="62">
+      <c r="AE39" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -39089,7 +39089,7 @@
       <c r="L40" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="O40" s="61">
+      <c r="O40" s="58">
         <f t="shared" si="4"/>
         <v>128</v>
       </c>
@@ -39105,11 +39105,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S40" s="62">
+      <c r="S40" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U40" s="61">
+      <c r="U40" s="58">
         <f t="shared" si="9"/>
         <v>128</v>
       </c>
@@ -39125,11 +39125,11 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y40" s="62">
+      <c r="Y40" s="59">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AA40" s="61">
+      <c r="AA40" s="58">
         <f t="shared" si="14"/>
         <v>192</v>
       </c>
@@ -39145,7 +39145,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE40" s="62">
+      <c r="AE40" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -39186,7 +39186,7 @@
       <c r="L41" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="O41" s="61">
+      <c r="O41" s="58">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -39202,11 +39202,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S41" s="62">
+      <c r="S41" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U41" s="61">
+      <c r="U41" s="58">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -39222,11 +39222,11 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y41" s="62">
+      <c r="Y41" s="59">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AA41" s="61">
+      <c r="AA41" s="58">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
@@ -39242,7 +39242,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE41" s="62">
+      <c r="AE41" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -39281,7 +39281,7 @@
       <c r="J42" s="28"/>
       <c r="K42" s="28"/>
       <c r="L42" s="45"/>
-      <c r="O42" s="61">
+      <c r="O42" s="58">
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
@@ -39297,11 +39297,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S42" s="62">
+      <c r="S42" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U42" s="61">
+      <c r="U42" s="58">
         <f t="shared" si="9"/>
         <v>48</v>
       </c>
@@ -39317,11 +39317,11 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y42" s="62">
+      <c r="Y42" s="59">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AA42" s="61">
+      <c r="AA42" s="58">
         <f t="shared" si="14"/>
         <v>72</v>
       </c>
@@ -39337,7 +39337,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE42" s="62">
+      <c r="AE42" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -39375,7 +39375,7 @@
       </c>
       <c r="J43" s="28"/>
       <c r="K43" s="28"/>
-      <c r="O43" s="61">
+      <c r="O43" s="58">
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
@@ -39391,11 +39391,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S43" s="62">
+      <c r="S43" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U43" s="61">
+      <c r="U43" s="58">
         <f t="shared" si="9"/>
         <v>48</v>
       </c>
@@ -39411,11 +39411,11 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y43" s="62">
+      <c r="Y43" s="59">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AA43" s="61">
+      <c r="AA43" s="58">
         <f t="shared" si="14"/>
         <v>72</v>
       </c>
@@ -39431,7 +39431,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE43" s="62">
+      <c r="AE43" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -39469,7 +39469,7 @@
       </c>
       <c r="J44" s="34"/>
       <c r="K44" s="34"/>
-      <c r="O44" s="61">
+      <c r="O44" s="58">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
@@ -39485,11 +39485,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S44" s="62">
+      <c r="S44" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U44" s="61">
+      <c r="U44" s="58">
         <f t="shared" si="9"/>
         <v>16</v>
       </c>
@@ -39505,11 +39505,11 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y44" s="62">
+      <c r="Y44" s="59">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AA44" s="61">
+      <c r="AA44" s="58">
         <f t="shared" si="14"/>
         <v>24</v>
       </c>
@@ -39525,7 +39525,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE44" s="62">
+      <c r="AE44" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -39563,7 +39563,7 @@
       </c>
       <c r="J45" s="34"/>
       <c r="K45" s="34"/>
-      <c r="O45" s="61">
+      <c r="O45" s="58">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
@@ -39579,11 +39579,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S45" s="62">
+      <c r="S45" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U45" s="61">
+      <c r="U45" s="58">
         <f t="shared" si="9"/>
         <v>16</v>
       </c>
@@ -39599,11 +39599,11 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y45" s="62">
+      <c r="Y45" s="59">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AA45" s="61">
+      <c r="AA45" s="58">
         <f t="shared" si="14"/>
         <v>24</v>
       </c>
@@ -39619,7 +39619,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE45" s="62">
+      <c r="AE45" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -39655,7 +39655,7 @@
       <c r="I46" s="28">
         <v>0</v>
       </c>
-      <c r="O46" s="61">
+      <c r="O46" s="58">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -39671,11 +39671,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S46" s="62">
+      <c r="S46" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U46" s="61">
+      <c r="U46" s="58">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -39691,11 +39691,11 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y46" s="62">
+      <c r="Y46" s="59">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AA46" s="61">
+      <c r="AA46" s="58">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
@@ -39711,7 +39711,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE46" s="62">
+      <c r="AE46" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -39747,7 +39747,7 @@
       <c r="I47" s="28">
         <v>0</v>
       </c>
-      <c r="O47" s="61">
+      <c r="O47" s="58">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -39763,11 +39763,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S47" s="62">
+      <c r="S47" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U47" s="61">
+      <c r="U47" s="58">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -39783,11 +39783,11 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y47" s="62">
+      <c r="Y47" s="59">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AA47" s="61">
+      <c r="AA47" s="58">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
@@ -39803,7 +39803,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE47" s="62">
+      <c r="AE47" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -39839,7 +39839,7 @@
       <c r="I48" s="28">
         <v>0</v>
       </c>
-      <c r="O48" s="61">
+      <c r="O48" s="58">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -39855,11 +39855,11 @@
         <f t="shared" si="7"/>
         <v>32</v>
       </c>
-      <c r="S48" s="62">
+      <c r="S48" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U48" s="61">
+      <c r="U48" s="58">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -39875,11 +39875,11 @@
         <f t="shared" si="12"/>
         <v>16</v>
       </c>
-      <c r="Y48" s="62">
+      <c r="Y48" s="59">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AA48" s="61">
+      <c r="AA48" s="58">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
@@ -39895,7 +39895,7 @@
         <f t="shared" si="17"/>
         <v>24</v>
       </c>
-      <c r="AE48" s="62">
+      <c r="AE48" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -39931,7 +39931,7 @@
       <c r="I49" s="28">
         <v>0</v>
       </c>
-      <c r="O49" s="61">
+      <c r="O49" s="58">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -39947,11 +39947,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S49" s="62">
+      <c r="S49" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U49" s="61">
+      <c r="U49" s="58">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -39967,11 +39967,11 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y49" s="62">
+      <c r="Y49" s="59">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AA49" s="61">
+      <c r="AA49" s="58">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
@@ -39987,7 +39987,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE49" s="62">
+      <c r="AE49" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -40023,7 +40023,7 @@
       <c r="I50" s="28">
         <v>0</v>
       </c>
-      <c r="O50" s="61">
+      <c r="O50" s="58">
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
@@ -40039,11 +40039,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S50" s="62">
+      <c r="S50" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U50" s="61">
+      <c r="U50" s="58">
         <f t="shared" si="9"/>
         <v>32</v>
       </c>
@@ -40059,11 +40059,11 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y50" s="62">
+      <c r="Y50" s="59">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AA50" s="61">
+      <c r="AA50" s="58">
         <f t="shared" si="14"/>
         <v>48</v>
       </c>
@@ -40079,7 +40079,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE50" s="62">
+      <c r="AE50" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -40115,7 +40115,7 @@
       <c r="I51" s="28">
         <v>0</v>
       </c>
-      <c r="O51" s="61">
+      <c r="O51" s="58">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -40131,11 +40131,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S51" s="62">
+      <c r="S51" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U51" s="61">
+      <c r="U51" s="58">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -40151,11 +40151,11 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y51" s="62">
+      <c r="Y51" s="59">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AA51" s="61">
+      <c r="AA51" s="58">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
@@ -40171,7 +40171,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE51" s="62">
+      <c r="AE51" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -40207,7 +40207,7 @@
       <c r="I52" s="28">
         <v>0</v>
       </c>
-      <c r="O52" s="61">
+      <c r="O52" s="58">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -40223,11 +40223,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S52" s="62">
+      <c r="S52" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U52" s="61">
+      <c r="U52" s="58">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -40243,11 +40243,11 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y52" s="62">
+      <c r="Y52" s="59">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AA52" s="61">
+      <c r="AA52" s="58">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
@@ -40263,7 +40263,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE52" s="62">
+      <c r="AE52" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -40299,7 +40299,7 @@
       <c r="I53" s="28">
         <v>0</v>
       </c>
-      <c r="O53" s="61">
+      <c r="O53" s="58">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -40315,11 +40315,11 @@
         <f t="shared" si="7"/>
         <v>64</v>
       </c>
-      <c r="S53" s="62">
+      <c r="S53" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U53" s="61">
+      <c r="U53" s="58">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -40335,11 +40335,11 @@
         <f t="shared" si="12"/>
         <v>32</v>
       </c>
-      <c r="Y53" s="62">
+      <c r="Y53" s="59">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AA53" s="61">
+      <c r="AA53" s="58">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
@@ -40355,7 +40355,7 @@
         <f t="shared" si="17"/>
         <v>48</v>
       </c>
-      <c r="AE53" s="62">
+      <c r="AE53" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -40391,7 +40391,7 @@
       <c r="I54" s="28">
         <v>0</v>
       </c>
-      <c r="O54" s="61">
+      <c r="O54" s="58">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -40407,11 +40407,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S54" s="62">
+      <c r="S54" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U54" s="61">
+      <c r="U54" s="58">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -40427,11 +40427,11 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y54" s="62">
+      <c r="Y54" s="59">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AA54" s="61">
+      <c r="AA54" s="58">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
@@ -40447,7 +40447,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE54" s="62">
+      <c r="AE54" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -40483,7 +40483,7 @@
       <c r="I55" s="28">
         <v>6</v>
       </c>
-      <c r="O55" s="61">
+      <c r="O55" s="58">
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
@@ -40499,11 +40499,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S55" s="62">
+      <c r="S55" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U55" s="61">
+      <c r="U55" s="58">
         <f t="shared" si="9"/>
         <v>48</v>
       </c>
@@ -40519,11 +40519,11 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y55" s="62">
+      <c r="Y55" s="59">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AA55" s="61">
+      <c r="AA55" s="58">
         <f t="shared" si="14"/>
         <v>72</v>
       </c>
@@ -40539,7 +40539,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE55" s="62">
+      <c r="AE55" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -40575,7 +40575,7 @@
       <c r="I56" s="28">
         <v>6</v>
       </c>
-      <c r="O56" s="61">
+      <c r="O56" s="58">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
@@ -40591,11 +40591,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S56" s="62">
+      <c r="S56" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U56" s="61">
+      <c r="U56" s="58">
         <f t="shared" si="9"/>
         <v>16</v>
       </c>
@@ -40611,11 +40611,11 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y56" s="62">
+      <c r="Y56" s="59">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AA56" s="61">
+      <c r="AA56" s="58">
         <f t="shared" si="14"/>
         <v>24</v>
       </c>
@@ -40631,7 +40631,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE56" s="62">
+      <c r="AE56" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -40667,7 +40667,7 @@
       <c r="I57" s="28">
         <v>6</v>
       </c>
-      <c r="O57" s="61">
+      <c r="O57" s="58">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -40683,11 +40683,11 @@
         <f t="shared" si="7"/>
         <v>64</v>
       </c>
-      <c r="S57" s="62">
+      <c r="S57" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U57" s="61">
+      <c r="U57" s="58">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -40703,11 +40703,11 @@
         <f t="shared" si="12"/>
         <v>32</v>
       </c>
-      <c r="Y57" s="62">
+      <c r="Y57" s="59">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AA57" s="61">
+      <c r="AA57" s="58">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
@@ -40723,7 +40723,7 @@
         <f t="shared" si="17"/>
         <v>48</v>
       </c>
-      <c r="AE57" s="62">
+      <c r="AE57" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -40762,7 +40762,7 @@
       <c r="L58" t="s">
         <v>38</v>
       </c>
-      <c r="O58" s="61">
+      <c r="O58" s="58">
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
@@ -40778,11 +40778,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S58" s="62">
+      <c r="S58" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U58" s="61">
+      <c r="U58" s="58">
         <f t="shared" si="9"/>
         <v>48</v>
       </c>
@@ -40798,11 +40798,11 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y58" s="62">
+      <c r="Y58" s="59">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AA58" s="61">
+      <c r="AA58" s="58">
         <f t="shared" si="14"/>
         <v>72</v>
       </c>
@@ -40818,7 +40818,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE58" s="62">
+      <c r="AE58" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -40854,7 +40854,7 @@
       <c r="I59" s="28">
         <v>6</v>
       </c>
-      <c r="O59" s="61">
+      <c r="O59" s="58">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
@@ -40870,11 +40870,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S59" s="62">
+      <c r="S59" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U59" s="61">
+      <c r="U59" s="58">
         <f t="shared" si="9"/>
         <v>16</v>
       </c>
@@ -40890,11 +40890,11 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y59" s="62">
+      <c r="Y59" s="59">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AA59" s="61">
+      <c r="AA59" s="58">
         <f t="shared" si="14"/>
         <v>24</v>
       </c>
@@ -40910,7 +40910,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE59" s="62">
+      <c r="AE59" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -40946,7 +40946,7 @@
       <c r="I60" s="28">
         <v>6</v>
       </c>
-      <c r="O60" s="61">
+      <c r="O60" s="58">
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
@@ -40962,11 +40962,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S60" s="62">
+      <c r="S60" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U60" s="61">
+      <c r="U60" s="58">
         <f t="shared" si="9"/>
         <v>48</v>
       </c>
@@ -40982,11 +40982,11 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y60" s="62">
+      <c r="Y60" s="59">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AA60" s="61">
+      <c r="AA60" s="58">
         <f t="shared" si="14"/>
         <v>72</v>
       </c>
@@ -41002,7 +41002,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE60" s="62">
+      <c r="AE60" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -41038,7 +41038,7 @@
       <c r="I61" s="28">
         <v>6</v>
       </c>
-      <c r="O61" s="61">
+      <c r="O61" s="58">
         <f t="shared" si="4"/>
         <v>128</v>
       </c>
@@ -41054,11 +41054,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S61" s="62">
+      <c r="S61" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U61" s="61">
+      <c r="U61" s="58">
         <f t="shared" si="9"/>
         <v>128</v>
       </c>
@@ -41074,11 +41074,11 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y61" s="62">
+      <c r="Y61" s="59">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AA61" s="61">
+      <c r="AA61" s="58">
         <f t="shared" si="14"/>
         <v>192</v>
       </c>
@@ -41094,7 +41094,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE61" s="62">
+      <c r="AE61" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -41130,7 +41130,7 @@
       <c r="I62" s="28">
         <v>0</v>
       </c>
-      <c r="O62" s="61">
+      <c r="O62" s="58">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -41146,11 +41146,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S62" s="62">
+      <c r="S62" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U62" s="61">
+      <c r="U62" s="58">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -41166,11 +41166,11 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y62" s="62">
+      <c r="Y62" s="59">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AA62" s="61">
+      <c r="AA62" s="58">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
@@ -41186,7 +41186,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE62" s="62">
+      <c r="AE62" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -41222,7 +41222,7 @@
       <c r="I63" s="28">
         <v>0</v>
       </c>
-      <c r="O63" s="61">
+      <c r="O63" s="58">
         <f t="shared" si="4"/>
         <v>480</v>
       </c>
@@ -41238,11 +41238,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S63" s="62">
+      <c r="S63" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U63" s="61">
+      <c r="U63" s="58">
         <f t="shared" si="9"/>
         <v>480</v>
       </c>
@@ -41258,11 +41258,11 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y63" s="62">
+      <c r="Y63" s="59">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AA63" s="61">
+      <c r="AA63" s="58">
         <f t="shared" si="14"/>
         <v>720</v>
       </c>
@@ -41278,7 +41278,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE63" s="62">
+      <c r="AE63" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -41314,7 +41314,7 @@
       <c r="I64" s="28">
         <v>0</v>
       </c>
-      <c r="O64" s="61">
+      <c r="O64" s="58">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -41330,11 +41330,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S64" s="62">
+      <c r="S64" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U64" s="61">
+      <c r="U64" s="58">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -41350,11 +41350,11 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y64" s="62">
+      <c r="Y64" s="59">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AA64" s="61">
+      <c r="AA64" s="58">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
@@ -41370,7 +41370,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE64" s="62">
+      <c r="AE64" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -41406,7 +41406,7 @@
       <c r="I65" s="28">
         <v>0</v>
       </c>
-      <c r="O65" s="61">
+      <c r="O65" s="58">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -41422,11 +41422,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S65" s="62">
+      <c r="S65" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U65" s="61">
+      <c r="U65" s="58">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -41442,11 +41442,11 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y65" s="62">
+      <c r="Y65" s="59">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AA65" s="61">
+      <c r="AA65" s="58">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
@@ -41462,7 +41462,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE65" s="62">
+      <c r="AE65" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -41498,7 +41498,7 @@
       <c r="I66" s="28">
         <v>0</v>
       </c>
-      <c r="O66" s="61">
+      <c r="O66" s="58">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -41514,11 +41514,11 @@
         <f t="shared" si="7"/>
         <v>160</v>
       </c>
-      <c r="S66" s="62">
+      <c r="S66" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U66" s="61">
+      <c r="U66" s="58">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -41534,11 +41534,11 @@
         <f t="shared" si="12"/>
         <v>80</v>
       </c>
-      <c r="Y66" s="62">
+      <c r="Y66" s="59">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AA66" s="61">
+      <c r="AA66" s="58">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
@@ -41554,7 +41554,7 @@
         <f t="shared" si="17"/>
         <v>120</v>
       </c>
-      <c r="AE66" s="62">
+      <c r="AE66" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -41590,63 +41590,63 @@
       <c r="I67" s="28">
         <v>0</v>
       </c>
-      <c r="O67" s="63">
+      <c r="O67" s="60">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P67" s="64">
+      <c r="P67" s="61">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q67" s="64">
+      <c r="Q67" s="61">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R67" s="64">
+      <c r="R67" s="61">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S67" s="65">
+      <c r="S67" s="62">
         <f t="shared" si="8"/>
         <v>160</v>
       </c>
-      <c r="U67" s="63">
+      <c r="U67" s="60">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V67" s="64">
+      <c r="V67" s="61">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W67" s="64">
+      <c r="W67" s="61">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="X67" s="64">
+      <c r="X67" s="61">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y67" s="65">
+      <c r="Y67" s="62">
         <f t="shared" si="13"/>
         <v>80</v>
       </c>
-      <c r="AA67" s="63">
+      <c r="AA67" s="60">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AB67" s="64">
+      <c r="AB67" s="61">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AC67" s="64">
+      <c r="AC67" s="61">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AD67" s="64">
+      <c r="AD67" s="61">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE67" s="65">
+      <c r="AE67" s="62">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
@@ -41741,7 +41741,7 @@
     <row r="71" spans="1:31">
       <c r="C71" s="26"/>
       <c r="G71" s="34"/>
-      <c r="N71" s="58"/>
+      <c r="N71" s="55"/>
       <c r="O71" s="49" t="s">
         <v>13</v>
       </c>
@@ -41758,7 +41758,7 @@
         <v>21</v>
       </c>
       <c r="T71" s="19"/>
-      <c r="U71" s="58" t="s">
+      <c r="U71" s="55" t="s">
         <v>13</v>
       </c>
       <c r="V71" s="49" t="s">
@@ -41774,7 +41774,7 @@
         <v>13</v>
       </c>
       <c r="Z71" s="19"/>
-      <c r="AA71" s="58" t="s">
+      <c r="AA71" s="55" t="s">
         <v>76</v>
       </c>
       <c r="AB71" s="49" t="s">
@@ -41810,7 +41810,7 @@
         <f>SUM(H11:H70)</f>
         <v>5808</v>
       </c>
-      <c r="N72" s="61" t="s">
+      <c r="N72" s="58" t="s">
         <v>61</v>
       </c>
       <c r="O72" s="52">
@@ -41829,11 +41829,11 @@
         <f>SUM(R11:R67)</f>
         <v>544</v>
       </c>
-      <c r="S72" s="66">
+      <c r="S72" s="63">
         <f>SUM(S11:S67)</f>
         <v>416</v>
       </c>
-      <c r="U72" s="70">
+      <c r="U72" s="67">
         <f>SUM(U11:U67)</f>
         <v>2304</v>
       </c>
@@ -41849,11 +41849,11 @@
         <f>SUM(X11:X67)</f>
         <v>272</v>
       </c>
-      <c r="Y72" s="66">
+      <c r="Y72" s="63">
         <f>SUM(Y11:Y67)</f>
         <v>208</v>
       </c>
-      <c r="AA72" s="70">
+      <c r="AA72" s="67">
         <f>SUM(AA11:AA67)</f>
         <v>3456</v>
       </c>
@@ -41869,14 +41869,14 @@
         <f>SUM(AD11:AD67)</f>
         <v>408</v>
       </c>
-      <c r="AE72" s="66">
+      <c r="AE72" s="63">
         <f>SUM(AE11:AE67)</f>
         <v>312</v>
       </c>
     </row>
     <row r="73" spans="1:31">
       <c r="G73" s="34"/>
-      <c r="N73" s="61" t="s">
+      <c r="N73" s="58" t="s">
         <v>70</v>
       </c>
       <c r="O73" s="51">
@@ -41895,11 +41895,11 @@
         <f>R72/36</f>
         <v>15.111111111111111</v>
       </c>
-      <c r="S73" s="67">
+      <c r="S73" s="64">
         <f>S72/36</f>
         <v>11.555555555555555</v>
       </c>
-      <c r="U73" s="71">
+      <c r="U73" s="68">
         <f>U72/36</f>
         <v>64</v>
       </c>
@@ -41915,11 +41915,11 @@
         <f>X72/36</f>
         <v>7.5555555555555554</v>
       </c>
-      <c r="Y73" s="67">
+      <c r="Y73" s="64">
         <f>Y72/36</f>
         <v>5.7777777777777777</v>
       </c>
-      <c r="AA73" s="71">
+      <c r="AA73" s="68">
         <f>AA72/36</f>
         <v>96</v>
       </c>
@@ -41935,13 +41935,13 @@
         <f>AD72/36</f>
         <v>11.333333333333334</v>
       </c>
-      <c r="AE73" s="67">
+      <c r="AE73" s="64">
         <f>AE72/36</f>
         <v>8.6666666666666661</v>
       </c>
     </row>
     <row r="74" spans="1:31">
-      <c r="N74" s="61" t="s">
+      <c r="N74" s="58" t="s">
         <v>71</v>
       </c>
       <c r="O74" s="41">
@@ -41956,10 +41956,10 @@
       <c r="R74" s="41">
         <v>3</v>
       </c>
-      <c r="S74" s="62">
+      <c r="S74" s="59">
         <v>3</v>
       </c>
-      <c r="U74" s="61">
+      <c r="U74" s="58">
         <v>12</v>
       </c>
       <c r="V74" s="41">
@@ -41971,10 +41971,10 @@
       <c r="X74" s="41">
         <v>3</v>
       </c>
-      <c r="Y74" s="62">
+      <c r="Y74" s="59">
         <v>3</v>
       </c>
-      <c r="AA74" s="61">
+      <c r="AA74" s="58">
         <v>12</v>
       </c>
       <c r="AB74" s="41">
@@ -41986,12 +41986,12 @@
       <c r="AD74" s="41">
         <v>3</v>
       </c>
-      <c r="AE74" s="62">
+      <c r="AE74" s="59">
         <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:31">
-      <c r="N75" s="61" t="s">
+      <c r="N75" s="58" t="s">
         <v>72</v>
       </c>
       <c r="O75" s="53">
@@ -42010,11 +42010,11 @@
         <f>R73/R74</f>
         <v>5.0370370370370372</v>
       </c>
-      <c r="S75" s="68">
+      <c r="S75" s="65">
         <f>S73/S74</f>
         <v>3.8518518518518516</v>
       </c>
-      <c r="U75" s="72">
+      <c r="U75" s="69">
         <f>U73/U74</f>
         <v>5.333333333333333</v>
       </c>
@@ -42030,11 +42030,11 @@
         <f>X73/X74</f>
         <v>2.5185185185185186</v>
       </c>
-      <c r="Y75" s="68">
+      <c r="Y75" s="65">
         <f>Y73/Y74</f>
         <v>1.9259259259259258</v>
       </c>
-      <c r="AA75" s="72">
+      <c r="AA75" s="69">
         <f>AA73/AA74</f>
         <v>8</v>
       </c>
@@ -42050,57 +42050,57 @@
         <f>AD73/AD74</f>
         <v>3.7777777777777781</v>
       </c>
-      <c r="AE75" s="68">
+      <c r="AE75" s="65">
         <f>AE73/AE74</f>
         <v>2.8888888888888888</v>
       </c>
     </row>
     <row r="76" spans="1:31">
-      <c r="N76" s="61"/>
+      <c r="N76" s="58"/>
       <c r="O76" s="41"/>
       <c r="P76" s="41"/>
       <c r="Q76" s="41"/>
       <c r="R76" s="41"/>
-      <c r="S76" s="62"/>
-      <c r="U76" s="61"/>
+      <c r="S76" s="59"/>
+      <c r="U76" s="58"/>
       <c r="V76" s="41"/>
       <c r="W76" s="41"/>
       <c r="X76" s="41"/>
-      <c r="Y76" s="62"/>
-      <c r="AA76" s="61"/>
+      <c r="Y76" s="59"/>
+      <c r="AA76" s="58"/>
       <c r="AB76" s="41"/>
       <c r="AC76" s="41"/>
       <c r="AD76" s="41"/>
-      <c r="AE76" s="62"/>
+      <c r="AE76" s="59"/>
     </row>
     <row r="77" spans="1:31">
       <c r="B77" s="32"/>
-      <c r="N77" s="63" t="s">
+      <c r="N77" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="O77" s="64"/>
-      <c r="P77" s="64"/>
-      <c r="Q77" s="64"/>
-      <c r="R77" s="64"/>
-      <c r="S77" s="69">
+      <c r="O77" s="61"/>
+      <c r="P77" s="61"/>
+      <c r="Q77" s="61"/>
+      <c r="R77" s="61"/>
+      <c r="S77" s="66">
         <f>SUM(O72:S72)</f>
         <v>5024</v>
       </c>
       <c r="T77" s="41"/>
-      <c r="U77" s="63"/>
-      <c r="V77" s="64"/>
-      <c r="W77" s="64"/>
-      <c r="X77" s="64"/>
-      <c r="Y77" s="65">
+      <c r="U77" s="60"/>
+      <c r="V77" s="61"/>
+      <c r="W77" s="61"/>
+      <c r="X77" s="61"/>
+      <c r="Y77" s="62">
         <f>SUM(U72:Y72)</f>
         <v>3664</v>
       </c>
       <c r="Z77" s="5"/>
-      <c r="AA77" s="63"/>
-      <c r="AB77" s="64"/>
-      <c r="AC77" s="64"/>
-      <c r="AD77" s="64"/>
-      <c r="AE77" s="69">
+      <c r="AA77" s="60"/>
+      <c r="AB77" s="61"/>
+      <c r="AC77" s="61"/>
+      <c r="AD77" s="61"/>
+      <c r="AE77" s="66">
         <f>SUM(AA72:AE72)</f>
         <v>5496</v>
       </c>
@@ -42161,11 +42161,11 @@
       <c r="F82"/>
       <c r="G82"/>
       <c r="H82"/>
-      <c r="N82" s="73" t="s">
+      <c r="N82" s="70" t="s">
         <v>153</v>
       </c>
-      <c r="O82" s="74"/>
-      <c r="P82" s="75"/>
+      <c r="O82" s="71"/>
+      <c r="P82" s="72"/>
       <c r="Q82" s="53"/>
       <c r="R82" s="53"/>
       <c r="S82" s="53"/>
@@ -42178,13 +42178,13 @@
       <c r="F83"/>
       <c r="G83"/>
       <c r="H83"/>
-      <c r="N83" s="61" t="s">
+      <c r="N83" s="58" t="s">
         <v>68</v>
       </c>
       <c r="O83" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="P83" s="62">
+      <c r="P83" s="59">
         <f>U72</f>
         <v>2304</v>
       </c>
@@ -42200,13 +42200,13 @@
       <c r="F84"/>
       <c r="G84"/>
       <c r="H84"/>
-      <c r="N84" s="61" t="s">
+      <c r="N84" s="58" t="s">
         <v>84</v>
       </c>
       <c r="O84" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="P84" s="62">
+      <c r="P84" s="59">
         <f>SUM(AB72:AE72)</f>
         <v>2040</v>
       </c>
@@ -42222,11 +42222,11 @@
       <c r="F85"/>
       <c r="G85"/>
       <c r="H85"/>
-      <c r="N85" s="61" t="s">
+      <c r="N85" s="58" t="s">
         <v>86</v>
       </c>
       <c r="O85" s="41"/>
-      <c r="P85" s="62">
+      <c r="P85" s="59">
         <f>CEILING(((SUM(P83:P84))*0.33),40)</f>
         <v>1440</v>
       </c>
@@ -42242,11 +42242,11 @@
       <c r="F86"/>
       <c r="G86"/>
       <c r="H86"/>
-      <c r="N86" s="76" t="s">
+      <c r="N86" s="73" t="s">
         <v>87</v>
       </c>
       <c r="O86" s="51"/>
-      <c r="P86" s="67">
+      <c r="P86" s="64">
         <f>20*30</f>
         <v>600</v>
       </c>
@@ -42262,11 +42262,11 @@
       <c r="F87"/>
       <c r="G87"/>
       <c r="H87"/>
-      <c r="N87" s="76" t="s">
+      <c r="N87" s="73" t="s">
         <v>88</v>
       </c>
       <c r="O87" s="51"/>
-      <c r="P87" s="67">
+      <c r="P87" s="64">
         <v>160</v>
       </c>
       <c r="Q87" s="51"/>
@@ -42281,9 +42281,9 @@
       <c r="F88"/>
       <c r="G88"/>
       <c r="H88"/>
-      <c r="N88" s="76"/>
+      <c r="N88" s="73"/>
       <c r="O88" s="51"/>
-      <c r="P88" s="67"/>
+      <c r="P88" s="64"/>
       <c r="Q88" s="51"/>
       <c r="R88" s="51"/>
       <c r="S88" s="51"/>
@@ -42296,11 +42296,11 @@
       <c r="F89"/>
       <c r="G89"/>
       <c r="H89"/>
-      <c r="N89" s="63" t="s">
+      <c r="N89" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="O89" s="64"/>
-      <c r="P89" s="65">
+      <c r="O89" s="61"/>
+      <c r="P89" s="62">
         <f>SUM(P83:P86)</f>
         <v>6384</v>
       </c>
@@ -42435,7 +42435,6 @@
     <mergeCell ref="F8:H8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -42450,7 +42449,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B17" sqref="B17:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
